--- a/Hospitais/extraidos/hospitais_maio.xlsx
+++ b/Hospitais/extraidos/hospitais_maio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,12 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -37,9 +43,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>Necessidade de leito pós-op de UTI (nlu)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -178,6 +178,12 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>5.15%</t>
+  </si>
+  <si>
     <t>3.68%</t>
   </si>
   <si>
@@ -187,9 +193,6 @@
     <t>2.94%</t>
   </si>
   <si>
-    <t>5.15%</t>
-  </si>
-  <si>
     <t>1.10%</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>0.74%</t>
-  </si>
-  <si>
-    <t>0.37%</t>
   </si>
   <si>
     <t>6.25%</t>
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +600,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -617,10 +614,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -634,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -651,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -668,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -685,10 +679,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -702,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,13 +730,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,13 +747,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,13 +764,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,13 +781,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,13 +798,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +815,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,13 +832,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -855,13 +849,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -889,13 +883,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -906,13 +900,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -923,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -940,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -957,13 +951,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -974,13 +968,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -991,13 +985,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1008,13 +1002,30 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
+      <c r="E27" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
